--- a/Business Analysis/data/user_6.xlsx
+++ b/Business Analysis/data/user_6.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\usersCode\MScDataScience\Multimodal analysis\Preprocessing\user_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epistimi\Documents\DataSience\Multimodal\emotion_based_music_recomendation\Business Analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD1C3E0-F82A-4A95-B26D-C2303FCAAD4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -886,7 +888,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1411,8 +1413,36 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1720,22 +1750,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="73.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="50.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="50.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>111</v>
       </c>
@@ -1767,7 +1797,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1799,7 +1829,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1831,7 +1861,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1863,7 +1893,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1895,7 +1925,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1927,7 +1957,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1959,7 +1989,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1991,7 +2021,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -2023,7 +2053,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -2055,7 +2085,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -2087,7 +2117,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -2119,7 +2149,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -2151,7 +2181,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -2183,7 +2213,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -2215,7 +2245,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -2247,7 +2277,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -2279,7 +2309,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -2311,7 +2341,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -2343,7 +2373,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -2375,7 +2405,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -2407,7 +2437,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -2439,7 +2469,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -2471,7 +2501,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -2503,7 +2533,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -2535,7 +2565,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -2567,7 +2597,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -2599,7 +2629,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -2631,7 +2661,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -2663,7 +2693,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -2695,7 +2725,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -2727,7 +2757,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -2759,7 +2789,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -2791,7 +2821,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -2823,7 +2853,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -2855,7 +2885,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -2887,7 +2917,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -2919,7 +2949,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -2951,7 +2981,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -2983,7 +3013,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -3015,7 +3045,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -3047,7 +3077,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -3079,7 +3109,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -3111,7 +3141,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -3143,7 +3173,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -3175,7 +3205,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -3207,7 +3237,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -3239,7 +3269,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -3271,7 +3301,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -3303,7 +3333,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -3335,7 +3365,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -3367,7 +3397,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -3399,7 +3429,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -3431,7 +3461,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -3463,7 +3493,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -3495,7 +3525,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -3527,7 +3557,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -3559,7 +3589,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -3591,7 +3621,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -3623,7 +3653,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -3655,7 +3685,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -3687,7 +3717,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -3719,7 +3749,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -3751,7 +3781,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -3783,7 +3813,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -3815,7 +3845,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -3847,7 +3877,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -3879,7 +3909,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -3911,7 +3941,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>0</v>
       </c>
@@ -3943,7 +3973,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>0</v>
       </c>
@@ -3975,7 +4005,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -4007,7 +4037,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -4039,7 +4069,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -4071,7 +4101,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -4103,7 +4133,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -4135,7 +4165,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -4167,7 +4197,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -4199,7 +4229,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -4231,7 +4261,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -4263,7 +4293,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>0</v>
       </c>
@@ -4295,7 +4325,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>0</v>
       </c>
@@ -4327,7 +4357,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>0</v>
       </c>
@@ -4359,7 +4389,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>0</v>
       </c>
@@ -4391,7 +4421,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -4423,7 +4453,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -4455,7 +4485,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -4487,7 +4517,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>0</v>
       </c>
@@ -4519,7 +4549,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -4551,7 +4581,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -4583,7 +4613,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>0</v>
       </c>
@@ -4615,7 +4645,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -4647,7 +4677,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>0</v>
       </c>
@@ -4679,7 +4709,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>0</v>
       </c>
@@ -4711,7 +4741,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>0</v>
       </c>
@@ -4743,7 +4773,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>0</v>
       </c>
@@ -4775,7 +4805,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>0</v>
       </c>
@@ -4807,7 +4837,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -4839,7 +4869,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>0</v>
       </c>
@@ -4871,7 +4901,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>0</v>
       </c>
@@ -4903,7 +4933,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>0</v>
       </c>
@@ -4935,7 +4965,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>0</v>
       </c>
@@ -4967,7 +4997,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>0</v>
       </c>
@@ -4999,7 +5029,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>0</v>
       </c>
@@ -5031,7 +5061,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>0</v>
       </c>
